--- a/lab02/ComplaintsExcelSchema.xlsx
+++ b/lab02/ComplaintsExcelSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E18D81-B6F4-4032-AEB7-140C7643B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E2549-330B-4A68-B2A7-3AF221023AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="4155" windowWidth="21150" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>PKK Kandydata</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Data Złożenia Skargi</t>
-  </si>
-  <si>
-    <t>Typ Egzaminu2</t>
   </si>
   <si>
     <t>Imię I Nazwisko Egzaminatora</t>
@@ -108,17 +105,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C827D91-3587-4E7E-BAF3-91AB80CE40F2}" name="Tabela1" displayName="Tabela1" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{1C827D91-3587-4E7E-BAF3-91AB80CE40F2}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C827D91-3587-4E7E-BAF3-91AB80CE40F2}" name="Tabela1" displayName="Tabela1" ref="A1:G2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{1C827D91-3587-4E7E-BAF3-91AB80CE40F2}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{426B01B9-D798-411D-B322-955F5C40E6EE}" name="PKK Kandydata"/>
     <tableColumn id="2" xr3:uid="{2FFEC6E9-80BD-4DC0-9998-D5B6B21C82FE}" name="Pesel Egzaminatora"/>
     <tableColumn id="3" xr3:uid="{664ACCD7-D1B1-4996-B0C5-AA3186066B88}" name="Termin Egzaminu"/>
     <tableColumn id="4" xr3:uid="{BE58C98E-4FFC-4E2E-8538-9A0DCE725E39}" name="Typ Egzaminu"/>
-    <tableColumn id="5" xr3:uid="{BA4AE079-3305-4443-8699-8A34B8BA7D2B}" name="Typ Egzaminu2"/>
-    <tableColumn id="6" xr3:uid="{F0AE522F-A075-4C78-98DC-0C37EADA4FD3}" name="Typ Skargi"/>
-    <tableColumn id="7" xr3:uid="{4B10E080-5E53-4A4A-8B9D-9CD212A0D137}" name="Treść Skargi"/>
-    <tableColumn id="8" xr3:uid="{EA2D2848-E0C2-43E2-9510-67B4DB98989E}" name="Data Złożenia Skargi"/>
+    <tableColumn id="5" xr3:uid="{BA4AE079-3305-4443-8699-8A34B8BA7D2B}" name="Typ Skargi"/>
+    <tableColumn id="6" xr3:uid="{F0AE522F-A075-4C78-98DC-0C37EADA4FD3}" name="Treść Skargi"/>
+    <tableColumn id="7" xr3:uid="{4B10E080-5E53-4A4A-8B9D-9CD212A0D137}" name="Data Złożenia Skargi"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -398,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,12 +407,12 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,15 +426,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -454,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF6DDE5-6BC9-4C35-A23D-FE0B26DB2E8D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
